--- a/medicine/Mort/Reine_douairière_de_France/Reine_douairière_de_France.xlsx
+++ b/medicine/Mort/Reine_douairière_de_France/Reine_douairière_de_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Reine_douairi%C3%A8re_de_France</t>
+          <t>Reine_douairière_de_France</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le titre de reine douairière de France est porté par les veuves des rois de France qui se voient attribuer au décès de leur mari un douaire qui leur assure des revenus et qu'elles conservent jusqu'à leur mort.
-En juin 1790, lorsque l'Assemblée nationale constituante discute de la liste civile de Louis XVI, le roi lui adresse une lettre demandant de fixer un douaire adéquat à son épouse Marie-Antoinette d'Autriche au cas où il mourrait avant elle : il estime que sous les règnes précédents, son montant s'élevait à 4 millions de livres. La proposition est votée par acclamations[1].
+En juin 1790, lorsque l'Assemblée nationale constituante discute de la liste civile de Louis XVI, le roi lui adresse une lettre demandant de fixer un douaire adéquat à son épouse Marie-Antoinette d'Autriche au cas où il mourrait avant elle : il estime que sous les règnes précédents, son montant s'élevait à 4 millions de livres. La proposition est votée par acclamations.
 Le tableau ci-dessous recense les reines douairières de France de 1108 à 1666.
 </t>
         </is>
